--- a/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
+++ b/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,6 +500,21 @@
       <c r="C4">
         <v>10</v>
       </c>
+      <c r="D4">
+        <v>33.18</v>
+      </c>
+      <c r="E4">
+        <v>42.08</v>
+      </c>
+      <c r="F4">
+        <v>56.61</v>
+      </c>
+      <c r="G4">
+        <v>5.07</v>
+      </c>
+      <c r="H4">
+        <v>10.56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
+++ b/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Method</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>describe_then_ask_qcc</t>
+  </si>
+  <si>
+    <t>describe_then_ask_qcc_fewshots</t>
   </si>
 </sst>
 </file>
@@ -117,8 +120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H5" totalsRowShown="0">
+  <autoFilter ref="A1:H5"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Method"/>
     <tableColumn id="2" name="Data" dataDxfId="0"/>
@@ -396,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12.85546875" customWidth="1"/>
@@ -516,6 +519,32 @@
         <v>10.56</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>46.81</v>
+      </c>
+      <c r="E5">
+        <v>57.64</v>
+      </c>
+      <c r="F5">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="G5">
+        <v>9.69</v>
+      </c>
+      <c r="H5">
+        <v>16.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
+++ b/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Viz Ablation Results" sheetId="2" r:id="rId1"/>
@@ -15,8 +15,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="10" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="29">
   <si>
     <t>Method</t>
   </si>
@@ -112,17 +112,26 @@
   <si>
     <t xml:space="preserve">Validation (Recall@100) </t>
   </si>
+  <si>
+    <t>question-category-control</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -140,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,11 +170,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -185,11 +205,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -437,6 +467,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -464,6 +497,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -491,6 +527,9 @@
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -517,6 +556,117 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -2439,6 +2589,122 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Viz Test'!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>question-category-control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Viz Test'!$A$5:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Viz Test'!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.46970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49669999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50580000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29FD-4024-B569-E271FB31A7DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2702,6 +2968,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3084,6 +3351,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3111,6 +3381,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3138,6 +3411,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3164,6 +3440,123 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -3668,6 +4061,238 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-866E-4070-B576-5DB5384C611A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Viz Training'!$F$3:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>question-category-control - Training </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Viz Training'!$A$6:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Viz Training'!$F$6:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93BA-4701-B8CA-1EB94480B86B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Viz Training'!$G$3:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>question-category-control - Validation (Recall@100) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Viz Training'!$A$6:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Viz Training'!$G$6:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.96919999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98029999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97850000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98340000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-93BA-4701-B8CA-1EB94480B86B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3802,6 +4427,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5621,7 +6247,51 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Auteur" refreshedDate="45396.637996412035" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="82">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Auteur" refreshedDate="45403.82252361111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="27">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tableau2"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Epochs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="90" count="9">
+        <n v="10"/>
+        <n v="20"/>
+        <n v="30"/>
+        <n v="40"/>
+        <n v="50"/>
+        <n v="60"/>
+        <n v="70"/>
+        <n v="80"/>
+        <n v="90"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Method" numFmtId="0">
+      <sharedItems count="3">
+        <s v="simple ask"/>
+        <s v="describe_then_ask_qcc_fewshots"/>
+        <s v="question-category-control"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Training" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.98499999999999999" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Validation (Recall@100)" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.96919999999999995" maxValue="0.99450000000000005"/>
+    </cacheField>
+    <cacheField name="Test (Recall@100)" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.46970000000000001" maxValue="0.59750000000000003"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Auteur" refreshedDate="45403.822523842595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="82">
   <cacheSource type="worksheet">
     <worksheetSource name="Tableau1"/>
   </cacheSource>
@@ -5680,50 +6350,201 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Auteur" refreshedDate="45396.689383449077" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="18">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Tableau2"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Epochs" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="90" count="9">
-        <n v="10"/>
-        <n v="20"/>
-        <n v="30"/>
-        <n v="40"/>
-        <n v="50"/>
-        <n v="60"/>
-        <n v="70"/>
-        <n v="80"/>
-        <n v="90"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Method" numFmtId="0">
-      <sharedItems count="2">
-        <s v="simple ask"/>
-        <s v="describe_then_ask_qcc_fewshots"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Training" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.98499999999999999" maxValue="1"/>
-    </cacheField>
-    <cacheField name="Validation (Recall@100)" numFmtId="10">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.97599999999999998" maxValue="0.99450000000000005"/>
-    </cacheField>
-    <cacheField name="Test (Recall@100)" numFmtId="10">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.48960000000000004" maxValue="0.59750000000000003"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="27">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.996"/>
+    <n v="0.97599999999999998"/>
+    <n v="0.48960000000000004"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.996"/>
+    <n v="0.98299999999999998"/>
+    <n v="0.52039999999999997"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.998"/>
+    <n v="0.98650000000000004"/>
+    <n v="0.56179999999999997"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.999"/>
+    <n v="0.98609999999999998"/>
+    <n v="0.50600000000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.999"/>
+    <n v="0.98719999999999997"/>
+    <n v="0.57009999999999994"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="0.999"/>
+    <n v="0.99019999999999997"/>
+    <n v="0.5423"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="0.999"/>
+    <n v="0.99039999999999995"/>
+    <n v="0.58210000000000006"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="0.9909"/>
+    <n v="0.57569999999999999"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="0.9909"/>
+    <n v="0.54949999999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.98499999999999999"/>
+    <n v="0.98360000000000003"/>
+    <n v="0.5716"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.998"/>
+    <n v="0.98740000000000006"/>
+    <n v="0.51200000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.998"/>
+    <n v="0.9869"/>
+    <n v="0.58609999999999995"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.999"/>
+    <n v="0.98850000000000005"/>
+    <n v="0.57499999999999996"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0.999"/>
+    <n v="0.98980000000000001"/>
+    <n v="0.58210000000000006"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0.99160000000000004"/>
+    <n v="0.57299999999999995"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0.99199999999999999"/>
+    <n v="0.59750000000000003"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0.99339999999999995"/>
+    <n v="0.5786"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0.99450000000000005"/>
+    <n v="0.59729999999999994"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.995"/>
+    <n v="0.96919999999999995"/>
+    <n v="0.46970000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.997"/>
+    <n v="0.97099999999999997"/>
+    <n v="0.49740000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.999"/>
+    <n v="0.97799999999999998"/>
+    <n v="0.49049999999999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.999"/>
+    <n v="0.98029999999999995"/>
+    <n v="0.49669999999999997"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="0.999"/>
+    <n v="0.97670000000000001"/>
+    <n v="0.48170000000000002"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0.97850000000000004"/>
+    <n v="0.51070000000000004"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0.98199999999999998"/>
+    <n v="0.49559999999999998"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0.98360000000000003"/>
+    <n v="0.49640000000000001"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0.98340000000000005"/>
+    <n v="0.50580000000000003"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="82">
   <r>
     <x v="0"/>
@@ -6548,139 +7369,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="18">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0.996"/>
-    <n v="0.97599999999999998"/>
-    <n v="0.48960000000000004"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0.996"/>
-    <n v="0.98299999999999998"/>
-    <n v="0.52039999999999997"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0.998"/>
-    <n v="0.98650000000000004"/>
-    <n v="0.56179999999999997"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="0.999"/>
-    <n v="0.98609999999999998"/>
-    <n v="0.50600000000000001"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0.999"/>
-    <n v="0.98719999999999997"/>
-    <n v="0.57009999999999994"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0.999"/>
-    <n v="0.99019999999999997"/>
-    <n v="0.5423"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0.999"/>
-    <n v="0.99039999999999995"/>
-    <n v="0.58210000000000006"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="0.9909"/>
-    <n v="0.57569999999999999"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="0.9909"/>
-    <n v="0.54949999999999999"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="0.98499999999999999"/>
-    <n v="0.98360000000000003"/>
-    <n v="0.5716"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0.998"/>
-    <n v="0.98740000000000006"/>
-    <n v="0.51200000000000001"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="0.998"/>
-    <n v="0.9869"/>
-    <n v="0.58609999999999995"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="0.999"/>
-    <n v="0.98850000000000005"/>
-    <n v="0.57499999999999996"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0.999"/>
-    <n v="0.98980000000000001"/>
-    <n v="0.58210000000000006"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0.99160000000000004"/>
-    <n v="0.57299999999999995"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0.99199999999999999"/>
-    <n v="0.59750000000000003"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0.99339999999999995"/>
-    <n v="0.5786"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0.99450000000000005"/>
-    <n v="0.59729999999999994"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:G30" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -6839,7 +7529,7 @@
     <dataField name="Somme de recall@100" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Somme de recall@500" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="6">
     <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -6858,6 +7548,54 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -6869,8 +7607,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Epochs">
-  <location ref="A3:C14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Epochs">
+  <location ref="A3:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="9">
@@ -6886,9 +7624,10 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="1"/>
         <item x="0"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6934,19 +7673,22 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
     </i>
+    <i>
+      <x v="2"/>
+    </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Somme de Test (Recall@100)" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="2">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -6954,7 +7696,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -6962,7 +7704,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="2">
+  <chartFormats count="3">
     <chartFormat chart="4" format="12" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -6987,6 +7729,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="4" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -6998,8 +7752,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Epochs">
-  <location ref="A3:G15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Epochs">
+  <location ref="A3:I15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="9">
@@ -7015,9 +7769,10 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="1"/>
         <item x="0"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7064,7 +7819,7 @@
     <field x="1"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="8">
     <i>
       <x/>
       <x/>
@@ -7074,6 +7829,13 @@
     </i>
     <i>
       <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
       <x/>
     </i>
     <i r="1" i="1">
@@ -7090,6 +7852,80 @@
     <dataField name="Training " fld="2" baseField="0" baseItem="5366848"/>
     <dataField name="Validation (Recall@100) " fld="3" baseField="0" baseItem="5366848"/>
   </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -7104,7 +7940,7 @@
   <autoFilter ref="A1:H83"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Method"/>
-    <tableColumn id="2" name="Data" dataDxfId="3"/>
+    <tableColumn id="2" name="Data" dataDxfId="5"/>
     <tableColumn id="3" name="Epochs"/>
     <tableColumn id="4" name="recall@100"/>
     <tableColumn id="5" name="recall@200"/>
@@ -7117,11 +7953,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:E19" totalsRowShown="0">
-  <autoFilter ref="A1:E19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:E28" totalsRowShown="0">
+  <autoFilter ref="A1:E28"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Epochs"/>
-    <tableColumn id="2" name="Method" dataDxfId="0"/>
+    <tableColumn id="2" name="Method" dataDxfId="2"/>
     <tableColumn id="3" name="Training"/>
     <tableColumn id="4" name="Validation (Recall@100)"/>
     <tableColumn id="5" name="Test (Recall@100)"/>
@@ -7401,10 +8237,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="10" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="10" width="24.28515625" customWidth="1"/>
     <col min="11" max="12" width="11.85546875" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" customWidth="1"/>
     <col min="14" max="16" width="11.85546875" customWidth="1"/>
@@ -8105,7 +8942,7 @@
   <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79:D83"/>
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10287,18 +11124,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C14"/>
+  <dimension ref="A3:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="35.140625" customWidth="1"/>
@@ -10307,7 +11144,7 @@
     <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -10315,7 +11152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -10325,8 +11162,11 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>10</v>
       </c>
@@ -10336,8 +11176,11 @@
       <c r="C5" s="10">
         <v>0.48960000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="10">
+        <v>0.46970000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>20</v>
       </c>
@@ -10347,8 +11190,11 @@
       <c r="C6" s="10">
         <v>0.52039999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="10">
+        <v>0.49740000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>30</v>
       </c>
@@ -10358,8 +11204,11 @@
       <c r="C7" s="10">
         <v>0.56179999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="10">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>40</v>
       </c>
@@ -10369,8 +11218,11 @@
       <c r="C8" s="10">
         <v>0.50600000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="10">
+        <v>0.49669999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>50</v>
       </c>
@@ -10380,8 +11232,11 @@
       <c r="C9" s="10">
         <v>0.57009999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="10">
+        <v>0.48170000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>60</v>
       </c>
@@ -10391,8 +11246,11 @@
       <c r="C10" s="10">
         <v>0.5423</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="10">
+        <v>0.51070000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>70</v>
       </c>
@@ -10402,8 +11260,11 @@
       <c r="C11" s="10">
         <v>0.58210000000000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="10">
+        <v>0.49559999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>80</v>
       </c>
@@ -10413,8 +11274,11 @@
       <c r="C12" s="10">
         <v>0.57569999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="10">
+        <v>0.49640000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>90</v>
       </c>
@@ -10424,8 +11288,11 @@
       <c r="C13" s="10">
         <v>0.54949999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="10">
+        <v>0.50580000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
@@ -10434,6 +11301,9 @@
       </c>
       <c r="C14" s="3">
         <v>4.8975</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4.4444999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -10444,32 +11314,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G15"/>
+  <dimension ref="A3:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -10477,13 +11347,16 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -10499,8 +11372,14 @@
       <c r="E5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>10</v>
       </c>
@@ -10517,13 +11396,19 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="F6" s="3">
-        <v>1.9809999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="G6" s="3">
-        <v>1.9596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.976</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.9287999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>20</v>
       </c>
@@ -10540,13 +11425,19 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="F7" s="3">
-        <v>1.994</v>
+        <v>0.997</v>
       </c>
       <c r="G7" s="3">
-        <v>1.9704000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.9910000000000001</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.9414000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>30</v>
       </c>
@@ -10563,13 +11454,19 @@
         <v>0.98650000000000004</v>
       </c>
       <c r="F8" s="3">
-        <v>1.996</v>
+        <v>0.999</v>
       </c>
       <c r="G8" s="3">
-        <v>1.9734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2.9514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>40</v>
       </c>
@@ -10586,13 +11483,19 @@
         <v>0.98609999999999998</v>
       </c>
       <c r="F9" s="3">
-        <v>1.998</v>
+        <v>0.999</v>
       </c>
       <c r="G9" s="3">
-        <v>1.9746000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2.9969999999999999</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2.9549000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>50</v>
       </c>
@@ -10609,13 +11512,19 @@
         <v>0.98719999999999997</v>
       </c>
       <c r="F10" s="3">
-        <v>1.998</v>
+        <v>0.999</v>
       </c>
       <c r="G10" s="3">
-        <v>1.9769999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2.9969999999999999</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.9537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>60</v>
       </c>
@@ -10632,13 +11541,19 @@
         <v>0.99019999999999997</v>
       </c>
       <c r="F11" s="3">
-        <v>1.9990000000000001</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>1.9818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.9603000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>70</v>
       </c>
@@ -10655,13 +11570,19 @@
         <v>0.99039999999999995</v>
       </c>
       <c r="F12" s="3">
-        <v>1.9990000000000001</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>1.9823999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2.9643999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>80</v>
       </c>
@@ -10678,13 +11599,19 @@
         <v>0.9909</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>1.9843</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2.9679000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>90</v>
       </c>
@@ -10701,13 +11628,19 @@
         <v>0.9909</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>1.9854000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2.9687999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
@@ -10724,10 +11657,16 @@
         <v>8.8811999999999998</v>
       </c>
       <c r="F15" s="3">
-        <v>17.965000000000003</v>
+        <v>8.9890000000000008</v>
       </c>
       <c r="G15" s="3">
-        <v>17.788899999999998</v>
+        <v>8.8026999999999997</v>
+      </c>
+      <c r="H15" s="3">
+        <v>26.953999999999997</v>
+      </c>
+      <c r="I15" s="3">
+        <v>26.5916</v>
       </c>
     </row>
   </sheetData>
@@ -10738,15 +11677,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="28.140625" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
@@ -11075,6 +12014,159 @@
         <v>0.59729999999999994</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0.995</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.46970000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.997</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.49740000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>40</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.49669999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.48170000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>60</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.51070000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>70</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.49559999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>80</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.49640000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>90</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.50580000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
+++ b/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Viz Ablation Results" sheetId="2" r:id="rId1"/>
@@ -15,8 +15,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
-    <pivotCache cacheId="10" r:id="rId7"/>
+    <pivotCache cacheId="60" r:id="rId6"/>
+    <pivotCache cacheId="64" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="30">
   <si>
     <t>Method</t>
   </si>
@@ -77,18 +77,6 @@
     <t>More epochs better results for both methods, but describe then ask get better boost</t>
   </si>
   <si>
-    <t>Somme de recall@100</t>
-  </si>
-  <si>
-    <t>Total Somme de recall@100</t>
-  </si>
-  <si>
-    <t>Total Somme de recall@500</t>
-  </si>
-  <si>
-    <t>Somme de recall@500</t>
-  </si>
-  <si>
     <t>Training</t>
   </si>
   <si>
@@ -113,25 +101,34 @@
     <t xml:space="preserve">Validation (Recall@100) </t>
   </si>
   <si>
-    <t>question-category-control</t>
+    <t>Test (mrr@100)</t>
+  </si>
+  <si>
+    <t>1. simple ask</t>
+  </si>
+  <si>
+    <t>2. simple_ask_qcc</t>
+  </si>
+  <si>
+    <t>3. describe_then_ask</t>
+  </si>
+  <si>
+    <t>4. describe_then_ask_2shots</t>
+  </si>
+  <si>
+    <t>5. describe_then_ask_qcc_2shots</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -149,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,22 +167,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -198,14 +184,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -213,7 +197,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -256,12 +270,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -467,9 +475,6 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -497,9 +502,6 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -627,11 +629,11 @@
           <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -654,11 +656,11 @@
           <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -681,11 +683,11 @@
           <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -713,11 +715,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Viz Ablation Results'!$B$1:$B$3</c:f>
+              <c:f>'Viz Ablation Results'!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>describe_then_ask_qcc_fewshots - Somme de recall@100</c:v>
+                  <c:v>describe_then_ask_qcc_fewshots</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -748,7 +750,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Viz Ablation Results'!$A$4:$A$30</c:f>
+              <c:f>'Viz Ablation Results'!$A$3:$A$29</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="21"/>
                 <c:lvl>
@@ -838,73 +840,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Viz Ablation Results'!$B$4:$B$30</c:f>
+              <c:f>'Viz Ablation Results'!$B$3:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>45.38</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44.56</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47.36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51.76</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>53.39</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57.65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54.32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53.56</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54.32</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57.23</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>47.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>46.24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>60.05</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>57.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>58.61</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>58.21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>59.75</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>59.73</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -920,11 +859,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Viz Ablation Results'!$C$1:$C$3</c:f>
+              <c:f>'Viz Ablation Results'!$C$1:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>describe_then_ask_qcc_fewshots - Somme de recall@500</c:v>
+                  <c:v>simple ask</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -955,7 +894,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Viz Ablation Results'!$A$4:$A$30</c:f>
+              <c:f>'Viz Ablation Results'!$A$3:$A$29</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="21"/>
                 <c:lvl>
@@ -1045,73 +984,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Viz Ablation Results'!$C$4:$C$30</c:f>
+              <c:f>'Viz Ablation Results'!$C$3:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>70.87</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.430000000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66.180000000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>67.59</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>72.989999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>72.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>74.64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>74.63</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>71.709999999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71.930000000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>72.209999999999994</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>73.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>64.58</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>70.44</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>74.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>73.78</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>75.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>76.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>75.39</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>75.09</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1119,420 +995,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-CBB4-469A-BCBB-B826B714C6BC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Viz Ablation Results'!$D$1:$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>simple ask - Somme de recall@100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Viz Ablation Results'!$A$4:$A$30</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="21"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>70</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>90</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>70</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>90</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>70</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>90</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>10%</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>50%</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>70%</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>90%</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>100%</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Viz Ablation Results'!$D$4:$D$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>45.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49.81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>46.47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47.19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48.18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>58.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>52.36</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52.63</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>51.81</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51.39</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>53.93</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50.79</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50.66</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>49.73</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>48.96</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>56.18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>57.01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>58.21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>54.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6AB8-4F4F-8803-F20BA42AAB2A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Viz Ablation Results'!$E$1:$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>simple ask - Somme de recall@500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Viz Ablation Results'!$A$4:$A$30</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="21"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>70</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>90</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>70</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>90</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>70</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>90</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>10%</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>50%</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>70%</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>90%</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>100%</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Viz Ablation Results'!$E$4:$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>69.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>71.739999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70.680000000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>72.11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>76.73</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>74.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72.34</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70.239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.47</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>70.760000000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>73.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71.16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>70.849999999999994</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>67.92</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>69.540000000000006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>70.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>74.760000000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>72.44</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>70.209999999999994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6AB8-4F4F-8803-F20BA42AAB2A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1666,6 +1128,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2340,11 +1803,38 @@
           <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -2366,7 +1856,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>describe_then_ask_qcc_fewshots</c:v>
+                  <c:v>1. simple ask</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2437,31 +1927,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.5716</c:v>
+                  <c:v>0.48960000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51200000000000001</c:v>
+                  <c:v>0.52039999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58609999999999995</c:v>
+                  <c:v>0.56179999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57499999999999996</c:v>
+                  <c:v>0.50600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.57009999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5423</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.58210000000000006</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57299999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.59750000000000003</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5786</c:v>
+                  <c:v>0.57569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59729999999999994</c:v>
+                  <c:v>0.54949999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,7 +1972,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>simple ask</c:v>
+                  <c:v>2. simple_ask_qcc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2553,31 +2043,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.48960000000000004</c:v>
+                  <c:v>0.46970000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52039999999999997</c:v>
+                  <c:v>0.49740000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56179999999999997</c:v>
+                  <c:v>0.49049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50600000000000001</c:v>
+                  <c:v>0.49669999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57009999999999994</c:v>
+                  <c:v>0.48170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5423</c:v>
+                  <c:v>0.51070000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58210000000000006</c:v>
+                  <c:v>0.49559999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57569999999999999</c:v>
+                  <c:v>0.49640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54949999999999999</c:v>
+                  <c:v>0.50580000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2598,7 +2088,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>question-category-control</c:v>
+                  <c:v>3. describe_then_ask</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2669,31 +2159,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.46970000000000001</c:v>
+                  <c:v>0.54210000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49740000000000001</c:v>
+                  <c:v>0.51729999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49049999999999999</c:v>
+                  <c:v>0.497</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49669999999999997</c:v>
+                  <c:v>0.56389999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48170000000000002</c:v>
+                  <c:v>0.52669999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51070000000000004</c:v>
+                  <c:v>0.53590000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49559999999999998</c:v>
+                  <c:v>0.55020000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49640000000000001</c:v>
+                  <c:v>0.56089999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50580000000000003</c:v>
+                  <c:v>0.54669999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,6 +2192,238 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-29FD-4024-B569-E271FB31A7DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Viz Test'!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4. describe_then_ask_2shots</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Viz Test'!$A$5:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Viz Test'!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.47710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52259999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53180000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53590000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56979999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-411E-4236-A8DC-428200B33ABC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Viz Test'!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5. describe_then_ask_qcc_2shots</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Viz Test'!$A$5:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Viz Test'!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58609999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58210000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59750000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59729999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-411E-4236-A8DC-428200B33ABC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3544,11 +3266,11 @@
           <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -3588,6 +3310,168 @@
           </c:spPr>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3603,7 +3487,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>describe_then_ask_qcc_fewshots - Training </c:v>
+                  <c:v>1. simple ask - Training </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3674,10 +3558,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.98499999999999999</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.998</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.998</c:v>
@@ -3689,10 +3573,10 @@
                   <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -3706,7 +3590,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-866E-4070-B576-5DB5384C611A}"/>
+              <c16:uniqueId val="{0000000C-2451-4A67-A711-7F63F7B05480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3719,7 +3603,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>describe_then_ask_qcc_fewshots - Validation (Recall@100) </c:v>
+                  <c:v>1. simple ask - Validation (Recall@100) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3790,31 +3674,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.98360000000000003</c:v>
+                  <c:v>0.97599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98740000000000006</c:v>
+                  <c:v>0.98299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9869</c:v>
+                  <c:v>0.98650000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98850000000000005</c:v>
+                  <c:v>0.98609999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98980000000000001</c:v>
+                  <c:v>0.98719999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99160000000000004</c:v>
+                  <c:v>0.99019999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99199999999999999</c:v>
+                  <c:v>0.99039999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99339999999999995</c:v>
+                  <c:v>0.9909</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99450000000000005</c:v>
+                  <c:v>0.9909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3822,7 +3706,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-866E-4070-B576-5DB5384C611A}"/>
+              <c16:uniqueId val="{0000000F-2451-4A67-A711-7F63F7B05480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3835,7 +3719,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>simple ask - Training </c:v>
+                  <c:v>5. describe_then_ask_qcc_2shots - Training </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3843,7 +3727,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3854,11 +3738,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3906,10 +3790,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.996</c:v>
+                  <c:v>0.98499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.996</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.998</c:v>
@@ -3921,10 +3805,10 @@
                   <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -3938,7 +3822,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-866E-4070-B576-5DB5384C611A}"/>
+              <c16:uniqueId val="{00000012-2451-4A67-A711-7F63F7B05480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3951,7 +3835,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>simple ask - Validation (Recall@100) </c:v>
+                  <c:v>5. describe_then_ask_qcc_2shots - Validation (Recall@100) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3959,9 +3843,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3972,15 +3854,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="65000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4028,31 +3906,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.97599999999999998</c:v>
+                  <c:v>0.98360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98299999999999998</c:v>
+                  <c:v>0.98740000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98650000000000004</c:v>
+                  <c:v>0.9869</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98609999999999998</c:v>
+                  <c:v>0.98850000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98719999999999997</c:v>
+                  <c:v>0.98980000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99019999999999997</c:v>
+                  <c:v>0.99160000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99039999999999995</c:v>
+                  <c:v>0.99199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9909</c:v>
+                  <c:v>0.99339999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9909</c:v>
+                  <c:v>0.99450000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4060,239 +3938,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-866E-4070-B576-5DB5384C611A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Viz Training'!$F$3:$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>question-category-control - Training </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Viz Training'!$A$6:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Viz Training'!$F$6:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-93BA-4701-B8CA-1EB94480B86B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Viz Training'!$G$3:$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>question-category-control - Validation (Recall@100) </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Viz Training'!$A$6:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Viz Training'!$G$6:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.96919999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98029999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97670000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97850000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98360000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.98340000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-93BA-4701-B8CA-1EB94480B86B}"/>
+              <c16:uniqueId val="{00000013-2451-4A67-A711-7F63F7B05480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4364,7 +4010,7 @@
         <c:axId val="1872264432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.97"/>
+          <c:min val="0.95000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6181,13 +5827,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6216,15 +5862,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
+      <xdr:colOff>149224</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>133347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1816100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6247,51 +5893,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Auteur" refreshedDate="45403.82252361111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="27">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Tableau2"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Epochs" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="90" count="9">
-        <n v="10"/>
-        <n v="20"/>
-        <n v="30"/>
-        <n v="40"/>
-        <n v="50"/>
-        <n v="60"/>
-        <n v="70"/>
-        <n v="80"/>
-        <n v="90"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Method" numFmtId="0">
-      <sharedItems count="3">
-        <s v="simple ask"/>
-        <s v="describe_then_ask_qcc_fewshots"/>
-        <s v="question-category-control"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Training" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.98499999999999999" maxValue="1"/>
-    </cacheField>
-    <cacheField name="Validation (Recall@100)" numFmtId="10">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.96919999999999995" maxValue="0.99450000000000005"/>
-    </cacheField>
-    <cacheField name="Test (Recall@100)" numFmtId="10">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.46970000000000001" maxValue="0.59750000000000003"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Auteur" refreshedDate="45403.822523842595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="82">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Auteur" refreshedDate="45410.501826504631" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="82">
   <cacheSource type="worksheet">
     <worksheetSource name="Tableau1"/>
   </cacheSource>
@@ -6350,201 +5952,63 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="27">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0.996"/>
-    <n v="0.97599999999999998"/>
-    <n v="0.48960000000000004"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0.996"/>
-    <n v="0.98299999999999998"/>
-    <n v="0.52039999999999997"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0.998"/>
-    <n v="0.98650000000000004"/>
-    <n v="0.56179999999999997"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="0.999"/>
-    <n v="0.98609999999999998"/>
-    <n v="0.50600000000000001"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="0.999"/>
-    <n v="0.98719999999999997"/>
-    <n v="0.57009999999999994"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0.999"/>
-    <n v="0.99019999999999997"/>
-    <n v="0.5423"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0.999"/>
-    <n v="0.99039999999999995"/>
-    <n v="0.58210000000000006"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="0.9909"/>
-    <n v="0.57569999999999999"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="0.9909"/>
-    <n v="0.54949999999999999"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="0.98499999999999999"/>
-    <n v="0.98360000000000003"/>
-    <n v="0.5716"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0.998"/>
-    <n v="0.98740000000000006"/>
-    <n v="0.51200000000000001"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="0.998"/>
-    <n v="0.9869"/>
-    <n v="0.58609999999999995"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="0.999"/>
-    <n v="0.98850000000000005"/>
-    <n v="0.57499999999999996"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="0.999"/>
-    <n v="0.98980000000000001"/>
-    <n v="0.58210000000000006"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0.99160000000000004"/>
-    <n v="0.57299999999999995"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0.99199999999999999"/>
-    <n v="0.59750000000000003"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0.99339999999999995"/>
-    <n v="0.5786"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="0.99450000000000005"/>
-    <n v="0.59729999999999994"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0.995"/>
-    <n v="0.96919999999999995"/>
-    <n v="0.46970000000000001"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="0.997"/>
-    <n v="0.97099999999999997"/>
-    <n v="0.49740000000000001"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="0.999"/>
-    <n v="0.97799999999999998"/>
-    <n v="0.49049999999999999"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <n v="0.999"/>
-    <n v="0.98029999999999995"/>
-    <n v="0.49669999999999997"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <n v="0.999"/>
-    <n v="0.97670000000000001"/>
-    <n v="0.48170000000000002"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0.97850000000000004"/>
-    <n v="0.51070000000000004"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0.98199999999999998"/>
-    <n v="0.49559999999999998"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0.98360000000000003"/>
-    <n v="0.49640000000000001"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="0.98340000000000005"/>
-    <n v="0.50580000000000003"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Auteur" refreshedDate="45410.50182662037" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tableau2"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Epochs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="90" count="9">
+        <n v="10"/>
+        <n v="20"/>
+        <n v="30"/>
+        <n v="40"/>
+        <n v="50"/>
+        <n v="60"/>
+        <n v="70"/>
+        <n v="80"/>
+        <n v="90"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Method" numFmtId="0">
+      <sharedItems count="12">
+        <s v="1. simple ask"/>
+        <s v="2. simple_ask_qcc"/>
+        <s v="3. describe_then_ask"/>
+        <s v="4. describe_then_ask_2shots"/>
+        <s v="5. describe_then_ask_qcc_2shots"/>
+        <s v="describe_then_ask_qcc_fewshots" u="1"/>
+        <s v="describe_then_ask_qcc_2shots" u="1"/>
+        <s v="describe_then_ask" u="1"/>
+        <s v="simple ask" u="1"/>
+        <s v="question-category-control" u="1"/>
+        <s v="simple_ask_qcc" u="1"/>
+        <s v="describe_then_ask_2shots" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Training" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.98499999999999999" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Validation (Recall@100)" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.96919999999999995" maxValue="0.99580000000000002"/>
+    </cacheField>
+    <cacheField name="Test (Recall@100)" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.46970000000000001" maxValue="0.59750000000000003"/>
+    </cacheField>
+    <cacheField name="Test (mrr@100)" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.18360000000000001" maxValue="0.29749999999999999"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="82">
   <r>
     <x v="0"/>
@@ -7369,9 +6833,374 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="45">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.996"/>
+    <n v="0.97599999999999998"/>
+    <n v="0.48960000000000004"/>
+    <n v="0.23799999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.996"/>
+    <n v="0.98299999999999998"/>
+    <n v="0.52039999999999997"/>
+    <n v="0.2389"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.998"/>
+    <n v="0.98650000000000004"/>
+    <n v="0.56179999999999997"/>
+    <n v="0.28129999999999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.999"/>
+    <n v="0.98609999999999998"/>
+    <n v="0.50600000000000001"/>
+    <n v="0.25109999999999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.999"/>
+    <n v="0.98719999999999997"/>
+    <n v="0.57009999999999994"/>
+    <n v="0.26889999999999997"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="0.999"/>
+    <n v="0.99019999999999997"/>
+    <n v="0.5423"/>
+    <n v="0.25430000000000003"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="0.999"/>
+    <n v="0.99039999999999995"/>
+    <n v="0.58210000000000006"/>
+    <n v="0.2898"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="0.9909"/>
+    <n v="0.57569999999999999"/>
+    <n v="0.29720000000000002"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="0.9909"/>
+    <n v="0.54949999999999999"/>
+    <n v="0.29749999999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.995"/>
+    <n v="0.96919999999999995"/>
+    <n v="0.46970000000000001"/>
+    <n v="0.19120000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.997"/>
+    <n v="0.97099999999999997"/>
+    <n v="0.49740000000000001"/>
+    <n v="0.24379999999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.999"/>
+    <n v="0.97799999999999998"/>
+    <n v="0.49049999999999999"/>
+    <n v="0.22420000000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.999"/>
+    <n v="0.98029999999999995"/>
+    <n v="0.49669999999999997"/>
+    <n v="0.2278"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0.999"/>
+    <n v="0.97670000000000001"/>
+    <n v="0.48170000000000002"/>
+    <n v="0.2233"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0.97850000000000004"/>
+    <n v="0.51070000000000004"/>
+    <n v="0.2286"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0.98199999999999998"/>
+    <n v="0.49559999999999998"/>
+    <n v="0.22389999999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0.98360000000000003"/>
+    <n v="0.49640000000000001"/>
+    <n v="0.25409999999999999"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0.98340000000000005"/>
+    <n v="0.50580000000000003"/>
+    <n v="0.25169999999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.997"/>
+    <n v="0.98650000000000004"/>
+    <n v="0.54210000000000003"/>
+    <n v="0.22070000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.999"/>
+    <n v="0.99019999999999997"/>
+    <n v="0.51729999999999998"/>
+    <n v="0.18360000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.998"/>
+    <n v="0.99270000000000003"/>
+    <n v="0.497"/>
+    <n v="0.21279999999999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.999"/>
+    <n v="0.99139999999999995"/>
+    <n v="0.56389999999999996"/>
+    <n v="0.22090000000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="0.999"/>
+    <n v="0.99350000000000005"/>
+    <n v="0.52669999999999995"/>
+    <n v="0.21609999999999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0.99550000000000005"/>
+    <n v="0.53590000000000004"/>
+    <n v="0.2271"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0.99580000000000002"/>
+    <n v="0.55020000000000002"/>
+    <n v="0.23669999999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0.99539999999999995"/>
+    <n v="0.56089999999999995"/>
+    <n v="0.26419999999999999"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0.99580000000000002"/>
+    <n v="0.54669999999999996"/>
+    <n v="0.25180000000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.997"/>
+    <n v="0.97540000000000004"/>
+    <n v="0.47710000000000002"/>
+    <n v="0.20710000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0.998"/>
+    <n v="0.98909999999999998"/>
+    <n v="0.52310000000000001"/>
+    <n v="0.25090000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="0.998"/>
+    <n v="0.9829"/>
+    <n v="0.52259999999999995"/>
+    <n v="0.22639999999999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.999"/>
+    <n v="0.98740000000000006"/>
+    <n v="0.53180000000000005"/>
+    <n v="0.26800000000000002"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="0.999"/>
+    <n v="0.98709999999999998"/>
+    <n v="0.53449999999999998"/>
+    <n v="0.27179999999999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="0.999"/>
+    <n v="0.99019999999999997"/>
+    <n v="0.56269999999999998"/>
+    <n v="0.2392"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="0.999"/>
+    <n v="0.99270000000000003"/>
+    <n v="0.53590000000000004"/>
+    <n v="0.2361"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="0.999"/>
+    <n v="0.99109999999999998"/>
+    <n v="0.57620000000000005"/>
+    <n v="0.2777"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="0.99380000000000002"/>
+    <n v="0.56979999999999997"/>
+    <n v="0.2782"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0.98499999999999999"/>
+    <n v="0.98360000000000003"/>
+    <n v="0.5716"/>
+    <n v="0.2477"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.998"/>
+    <n v="0.98740000000000006"/>
+    <n v="0.51200000000000001"/>
+    <n v="0.22889999999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="0.998"/>
+    <n v="0.9869"/>
+    <n v="0.58609999999999995"/>
+    <n v="0.23830000000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.999"/>
+    <n v="0.98850000000000005"/>
+    <n v="0.57499999999999996"/>
+    <n v="0.26500000000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.999"/>
+    <n v="0.98980000000000001"/>
+    <n v="0.58210000000000006"/>
+    <n v="0.27310000000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="0.99160000000000004"/>
+    <n v="0.57299999999999995"/>
+    <n v="0.2515"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="0.99199999999999999"/>
+    <n v="0.59750000000000003"/>
+    <n v="0.27710000000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="0.99339999999999995"/>
+    <n v="0.5786"/>
+    <n v="0.27079999999999999"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="0.99450000000000005"/>
+    <n v="0.59729999999999994"/>
+    <n v="0.27979999999999999"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:G30" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:D29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
@@ -7406,9 +7235,9 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -7499,37 +7328,21 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="2">
+  <colFields count="1">
     <field x="0"/>
-    <field x="-2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="3">
     <i>
       <x/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
     </i>
     <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
       <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
   </colItems>
-  <dataFields count="2">
-    <dataField name="Somme de recall@100" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Somme de recall@500" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="2">
     <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -7548,54 +7361,6 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7607,9 +7372,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Epochs">
-  <location ref="A3:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Epochs">
+  <location ref="A3:F14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="9">
         <item x="0"/>
@@ -7624,16 +7389,26 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="4">
+      <items count="13">
+        <item m="1" x="5"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
+        <item m="1" x="11"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField numFmtId="10" showAll="0"/>
     <pivotField dataField="1" numFmtId="10" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -7673,22 +7448,28 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="5">
     <i>
-      <x/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="8"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Somme de Test (Recall@100)" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -7704,39 +7485,63 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="3">
-    <chartFormat chart="4" format="12" series="1">
+  <chartFormats count="5">
+    <chartFormat chart="4" format="29" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="0"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="13" series="1">
+    <chartFormat chart="4" format="30" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="1"/>
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="14" series="1">
+    <chartFormat chart="4" format="31" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="2"/>
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="32" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="33" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -7752,9 +7557,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Epochs">
-  <location ref="A3:I15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Epochs">
+  <location ref="A3:G15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="9">
         <item x="0"/>
@@ -7768,17 +7573,27 @@
         <item x="8"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="1"/>
+    <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items count="13">
         <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item m="1" x="7"/>
+        <item m="1" x="11"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" numFmtId="10" showAll="0"/>
     <pivotField numFmtId="10" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -7819,7 +7634,7 @@
     <field x="1"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="8">
+  <colItems count="6">
     <i>
       <x/>
       <x/>
@@ -7828,14 +7643,7 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
+      <x v="4"/>
       <x/>
     </i>
     <i r="1" i="1">
@@ -7849,23 +7657,29 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Training " fld="2" baseField="0" baseItem="5366848"/>
-    <dataField name="Validation (Recall@100) " fld="3" baseField="0" baseItem="5366848"/>
+    <dataField name="Training " fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Validation (Recall@100) " fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="6">
-    <chartFormat chart="0" format="12" series="1">
+    <chartFormat chart="0" format="35" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="13" series="1">
+    <chartFormat chart="0" format="36" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="38" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7877,50 +7691,38 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="14" series="1">
+    <chartFormat chart="0" format="39" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="1"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="15" series="1">
+    <chartFormat chart="0" format="40" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="1"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="16" series="1">
+    <chartFormat chart="0" format="41" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="17" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -7937,10 +7739,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H83" totalsRowShown="0">
-  <autoFilter ref="A1:H83"/>
+  <autoFilter ref="A1:H83">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="simple ask"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="Method"/>
-    <tableColumn id="2" name="Data" dataDxfId="5"/>
+    <tableColumn id="2" name="Data" dataDxfId="13"/>
     <tableColumn id="3" name="Epochs"/>
     <tableColumn id="4" name="recall@100"/>
     <tableColumn id="5" name="recall@200"/>
@@ -7953,14 +7761,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:E28" totalsRowShown="0">
-  <autoFilter ref="A1:E28"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:F46" totalsRowShown="0">
+  <autoFilter ref="A1:F46"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Epochs"/>
-    <tableColumn id="2" name="Method" dataDxfId="2"/>
+    <tableColumn id="2" name="Method" dataDxfId="12"/>
     <tableColumn id="3" name="Training"/>
     <tableColumn id="4" name="Validation (Recall@100)"/>
     <tableColumn id="5" name="Test (Recall@100)"/>
+    <tableColumn id="6" name="Test (mrr@100)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8229,19 +8038,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
-    </sheetView>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="10" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="12" width="11.85546875" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" customWidth="1"/>
     <col min="14" max="16" width="11.85546875" customWidth="1"/>
@@ -8259,661 +8070,158 @@
     <col min="45" max="45" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>233.70999999999998</v>
-      </c>
-      <c r="C4" s="3">
-        <v>340.87000000000006</v>
-      </c>
-      <c r="D4" s="3">
-        <v>237.13</v>
-      </c>
-      <c r="E4" s="3">
-        <v>354.35999999999996</v>
-      </c>
-      <c r="F4" s="3">
-        <v>470.84000000000003</v>
-      </c>
-      <c r="G4" s="3">
-        <v>695.23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3">
-        <v>45.38</v>
-      </c>
-      <c r="C5" s="3">
-        <v>70.87</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45.48</v>
-      </c>
-      <c r="E5" s="3">
-        <v>69.8</v>
-      </c>
-      <c r="F5" s="3">
-        <v>90.86</v>
-      </c>
-      <c r="G5" s="3">
-        <v>140.67000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>30</v>
       </c>
-      <c r="B6" s="3">
-        <v>44.65</v>
-      </c>
-      <c r="C6" s="3">
-        <v>65.430000000000007</v>
-      </c>
-      <c r="D6" s="3">
-        <v>49.81</v>
-      </c>
-      <c r="E6" s="3">
-        <v>71.11</v>
-      </c>
-      <c r="F6" s="3">
-        <v>94.460000000000008</v>
-      </c>
-      <c r="G6" s="3">
-        <v>136.54000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>50</v>
       </c>
-      <c r="B7" s="3">
-        <v>44.56</v>
-      </c>
-      <c r="C7" s="3">
-        <v>66.180000000000007</v>
-      </c>
-      <c r="D7" s="3">
-        <v>46.47</v>
-      </c>
-      <c r="E7" s="3">
-        <v>71.739999999999995</v>
-      </c>
-      <c r="F7" s="3">
-        <v>91.03</v>
-      </c>
-      <c r="G7" s="3">
-        <v>137.92000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>70</v>
       </c>
-      <c r="B8" s="3">
-        <v>47.36</v>
-      </c>
-      <c r="C8" s="3">
-        <v>67.59</v>
-      </c>
-      <c r="D8" s="3">
-        <v>47.19</v>
-      </c>
-      <c r="E8" s="3">
-        <v>71.03</v>
-      </c>
-      <c r="F8" s="3">
-        <v>94.55</v>
-      </c>
-      <c r="G8" s="3">
-        <v>138.62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>90</v>
       </c>
-      <c r="B9" s="3">
-        <v>51.76</v>
-      </c>
-      <c r="C9" s="3">
-        <v>70.8</v>
-      </c>
-      <c r="D9" s="3">
-        <v>48.18</v>
-      </c>
-      <c r="E9" s="3">
-        <v>70.680000000000007</v>
-      </c>
-      <c r="F9" s="3">
-        <v>99.94</v>
-      </c>
-      <c r="G9" s="3">
-        <v>141.48000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="B10" s="3">
-        <v>166.29</v>
-      </c>
-      <c r="C10" s="3">
-        <v>219.93</v>
-      </c>
-      <c r="D10" s="3">
-        <v>169.6</v>
-      </c>
-      <c r="E10" s="3">
-        <v>223.79000000000002</v>
-      </c>
-      <c r="F10" s="3">
-        <v>335.89</v>
-      </c>
-      <c r="G10" s="3">
-        <v>443.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>55.25</v>
-      </c>
-      <c r="C11" s="3">
-        <v>72.989999999999995</v>
-      </c>
-      <c r="D11" s="3">
-        <v>55.41</v>
-      </c>
-      <c r="E11" s="3">
-        <v>72.11</v>
-      </c>
-      <c r="F11" s="3">
-        <v>110.66</v>
-      </c>
-      <c r="G11" s="3">
-        <v>145.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>30</v>
-      </c>
-      <c r="B12" s="3">
-        <v>53.39</v>
-      </c>
-      <c r="C12" s="3">
-        <v>72.3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>56.06</v>
-      </c>
-      <c r="E12" s="3">
-        <v>76.73</v>
-      </c>
-      <c r="F12" s="3">
-        <v>109.45</v>
-      </c>
-      <c r="G12" s="3">
-        <v>149.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3">
-        <v>57.65</v>
-      </c>
-      <c r="C13" s="3">
-        <v>74.64</v>
-      </c>
-      <c r="D13" s="3">
-        <v>58.13</v>
-      </c>
-      <c r="E13" s="3">
-        <v>74.95</v>
-      </c>
-      <c r="F13" s="3">
-        <v>115.78</v>
-      </c>
-      <c r="G13" s="3">
-        <v>149.59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="B14" s="3">
-        <v>276.63</v>
-      </c>
-      <c r="C14" s="3">
-        <v>364.28</v>
-      </c>
-      <c r="D14" s="3">
-        <v>262.12</v>
-      </c>
-      <c r="E14" s="3">
-        <v>354.71000000000004</v>
-      </c>
-      <c r="F14" s="3">
-        <v>538.75</v>
-      </c>
-      <c r="G14" s="3">
-        <v>718.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3">
-        <v>54.32</v>
-      </c>
-      <c r="C15" s="3">
-        <v>74.63</v>
-      </c>
-      <c r="D15" s="3">
-        <v>52.36</v>
-      </c>
-      <c r="E15" s="3">
-        <v>72.34</v>
-      </c>
-      <c r="F15" s="3">
-        <v>106.68</v>
-      </c>
-      <c r="G15" s="3">
-        <v>146.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3">
-        <v>53.56</v>
-      </c>
-      <c r="C16" s="3">
-        <v>71.709999999999994</v>
-      </c>
-      <c r="D16" s="3">
-        <v>52.63</v>
-      </c>
-      <c r="E16" s="3">
-        <v>70.239999999999995</v>
-      </c>
-      <c r="F16" s="3">
-        <v>106.19</v>
-      </c>
-      <c r="G16" s="3">
-        <v>141.94999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>50</v>
-      </c>
-      <c r="B17" s="3">
-        <v>54.32</v>
-      </c>
-      <c r="C17" s="3">
-        <v>71.930000000000007</v>
-      </c>
-      <c r="D17" s="3">
-        <v>51.81</v>
-      </c>
-      <c r="E17" s="3">
-        <v>67.47</v>
-      </c>
-      <c r="F17" s="3">
-        <v>106.13</v>
-      </c>
-      <c r="G17" s="3">
-        <v>139.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>70</v>
-      </c>
-      <c r="B18" s="3">
-        <v>57.2</v>
-      </c>
-      <c r="C18" s="3">
-        <v>72.209999999999994</v>
-      </c>
-      <c r="D18" s="3">
-        <v>51.39</v>
-      </c>
-      <c r="E18" s="3">
-        <v>70.760000000000005</v>
-      </c>
-      <c r="F18" s="3">
-        <v>108.59</v>
-      </c>
-      <c r="G18" s="3">
-        <v>142.97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>90</v>
-      </c>
-      <c r="B19" s="3">
-        <v>57.23</v>
-      </c>
-      <c r="C19" s="3">
-        <v>73.8</v>
-      </c>
-      <c r="D19" s="3">
-        <v>53.93</v>
-      </c>
-      <c r="E19" s="3">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="F19" s="3">
-        <v>111.16</v>
-      </c>
-      <c r="G19" s="3">
-        <v>147.69999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="B20" s="3">
-        <v>153.49</v>
-      </c>
-      <c r="C20" s="3">
-        <v>209.26999999999998</v>
-      </c>
-      <c r="D20" s="3">
-        <v>151.17999999999998</v>
-      </c>
-      <c r="E20" s="3">
-        <v>209.93</v>
-      </c>
-      <c r="F20" s="3">
-        <v>304.67</v>
-      </c>
-      <c r="G20" s="3">
-        <v>419.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3">
-        <v>47.2</v>
-      </c>
-      <c r="C21" s="3">
-        <v>64.58</v>
-      </c>
-      <c r="D21" s="3">
-        <v>50.79</v>
-      </c>
-      <c r="E21" s="3">
-        <v>71.16</v>
-      </c>
-      <c r="F21" s="3">
-        <v>97.990000000000009</v>
-      </c>
-      <c r="G21" s="3">
-        <v>135.74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>30</v>
-      </c>
-      <c r="B22" s="3">
-        <v>46.24</v>
-      </c>
-      <c r="C22" s="3">
-        <v>70.44</v>
-      </c>
-      <c r="D22" s="3">
-        <v>50.66</v>
-      </c>
-      <c r="E22" s="3">
-        <v>70.849999999999994</v>
-      </c>
-      <c r="F22" s="3">
-        <v>96.9</v>
-      </c>
-      <c r="G22" s="3">
-        <v>141.29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>50</v>
-      </c>
-      <c r="B23" s="3">
-        <v>60.05</v>
-      </c>
-      <c r="C23" s="3">
-        <v>74.25</v>
-      </c>
-      <c r="D23" s="3">
-        <v>49.73</v>
-      </c>
-      <c r="E23" s="3">
-        <v>67.92</v>
-      </c>
-      <c r="F23" s="3">
-        <v>109.78</v>
-      </c>
-      <c r="G23" s="3">
-        <v>142.17000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3">
-        <v>293.45999999999998</v>
-      </c>
-      <c r="C24" s="3">
-        <v>376.40999999999997</v>
-      </c>
-      <c r="D24" s="3">
-        <v>275.31</v>
-      </c>
-      <c r="E24" s="3">
-        <v>357.25</v>
-      </c>
-      <c r="F24" s="3">
-        <v>568.77</v>
-      </c>
-      <c r="G24" s="3">
-        <v>733.65999999999985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3">
-        <v>57.16</v>
-      </c>
-      <c r="C25" s="3">
-        <v>73.78</v>
-      </c>
-      <c r="D25" s="3">
-        <v>48.96</v>
-      </c>
-      <c r="E25" s="3">
-        <v>69.540000000000006</v>
-      </c>
-      <c r="F25" s="3">
-        <v>106.12</v>
-      </c>
-      <c r="G25" s="3">
-        <v>143.32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>30</v>
-      </c>
-      <c r="B26" s="3">
-        <v>58.61</v>
-      </c>
-      <c r="C26" s="3">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="D26" s="3">
-        <v>56.18</v>
-      </c>
-      <c r="E26" s="3">
-        <v>70.3</v>
-      </c>
-      <c r="F26" s="3">
-        <v>114.78999999999999</v>
-      </c>
-      <c r="G26" s="3">
-        <v>145.69999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>50</v>
-      </c>
-      <c r="B27" s="3">
-        <v>58.21</v>
-      </c>
-      <c r="C27" s="3">
-        <v>76.75</v>
-      </c>
-      <c r="D27" s="3">
-        <v>57.01</v>
-      </c>
-      <c r="E27" s="3">
-        <v>74.760000000000005</v>
-      </c>
-      <c r="F27" s="3">
-        <v>115.22</v>
-      </c>
-      <c r="G27" s="3">
-        <v>151.51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>70</v>
-      </c>
-      <c r="B28" s="3">
-        <v>59.75</v>
-      </c>
-      <c r="C28" s="3">
-        <v>75.39</v>
-      </c>
-      <c r="D28" s="3">
-        <v>58.21</v>
-      </c>
-      <c r="E28" s="3">
-        <v>72.44</v>
-      </c>
-      <c r="F28" s="3">
-        <v>117.96000000000001</v>
-      </c>
-      <c r="G28" s="3">
-        <v>147.82999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>90</v>
-      </c>
-      <c r="B29" s="3">
-        <v>59.73</v>
-      </c>
-      <c r="C29" s="3">
-        <v>75.09</v>
-      </c>
-      <c r="D29" s="3">
-        <v>54.95</v>
-      </c>
-      <c r="E29" s="3">
-        <v>70.209999999999994</v>
-      </c>
-      <c r="F29" s="3">
-        <v>114.68</v>
-      </c>
-      <c r="G29" s="3">
-        <v>145.30000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1123.58</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1510.7600000000002</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1095.3399999999999</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1500.04</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2218.9199999999996</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3010.8</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -8941,8 +8249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9111,7 +8419,7 @@
         <v>23.54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -9137,7 +8445,7 @@
         <v>16.239999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -9163,7 +8471,7 @@
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -9189,7 +8497,7 @@
         <v>16.149999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9215,7 +8523,7 @@
         <v>21.09</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -9319,7 +8627,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -9345,7 +8653,7 @@
         <v>19.59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -9371,7 +8679,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -9475,7 +8783,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -9501,7 +8809,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -9527,7 +8835,7 @@
         <v>22.87</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -9631,7 +8939,7 @@
         <v>27.76</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -9657,7 +8965,7 @@
         <v>21.59</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -9683,7 +8991,7 @@
         <v>24.33</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -9787,7 +9095,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -9813,7 +9121,7 @@
         <v>20.86</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -9839,7 +9147,7 @@
         <v>18.690000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -9943,7 +9251,7 @@
         <v>26.57</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -9969,7 +9277,7 @@
         <v>25.34</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -9995,7 +9303,7 @@
         <v>27.37</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -10099,7 +9407,7 @@
         <v>27.43</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -10125,7 +9433,7 @@
         <v>18.98</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -10151,7 +9459,7 @@
         <v>24.97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -10307,7 +9615,7 @@
         <v>26.29</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -10333,7 +9641,7 @@
         <v>21.03</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -10359,7 +9667,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -10385,7 +9693,7 @@
         <v>27.66</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -10411,7 +9719,7 @@
         <v>30.98</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -10567,7 +9875,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -10593,7 +9901,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -10619,7 +9927,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -10645,7 +9953,7 @@
         <v>26.59</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -10671,7 +9979,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -10775,7 +10083,7 @@
         <v>25.68</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -10801,7 +10109,7 @@
         <v>21.64</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -10827,7 +10135,7 @@
         <v>21.31</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -10983,7 +10291,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -11009,7 +10317,7 @@
         <v>24.77</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -11035,7 +10343,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -11061,7 +10369,7 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -11087,7 +10395,7 @@
         <v>27.71</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -11124,186 +10432,253 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D14"/>
+  <dimension ref="A3:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>10</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
+        <v>0.48960000000000004</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.46970000000000001</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.47710000000000002</v>
+      </c>
+      <c r="F5" s="9">
         <v>0.5716</v>
       </c>
-      <c r="C5" s="10">
-        <v>0.48960000000000004</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.46970000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>20</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
+        <v>0.52039999999999997</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.51729999999999998</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="F6" s="9">
         <v>0.51200000000000001</v>
       </c>
-      <c r="C6" s="10">
-        <v>0.52039999999999997</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.49740000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>30</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
+        <v>0.56179999999999997</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.497</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="F7" s="9">
         <v>0.58609999999999995</v>
       </c>
-      <c r="C7" s="10">
-        <v>0.56179999999999997</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.49049999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>40</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.49669999999999997</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.56389999999999996</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.53180000000000005</v>
+      </c>
+      <c r="F8" s="9">
         <v>0.57499999999999996</v>
       </c>
-      <c r="C8" s="10">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.49669999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>50</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
+        <v>0.57009999999999994</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.48170000000000002</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.52669999999999995</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="F9" s="9">
         <v>0.58210000000000006</v>
       </c>
-      <c r="C9" s="10">
-        <v>0.57009999999999994</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.48170000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>60</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
+        <v>0.5423</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.51070000000000004</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="F10" s="9">
         <v>0.57299999999999995</v>
       </c>
-      <c r="C10" s="10">
-        <v>0.5423</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.51070000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>70</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
+        <v>0.58210000000000006</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.49559999999999998</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.55020000000000002</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="F11" s="9">
         <v>0.59750000000000003</v>
       </c>
-      <c r="C11" s="10">
-        <v>0.58210000000000006</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.49559999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>80</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
+        <v>0.57569999999999999</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="F12" s="9">
         <v>0.5786</v>
       </c>
-      <c r="C12" s="10">
-        <v>0.57569999999999999</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.49640000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>90</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.50580000000000003</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.54669999999999996</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.56979999999999997</v>
+      </c>
+      <c r="F13" s="9">
         <v>0.59729999999999994</v>
       </c>
-      <c r="C13" s="10">
-        <v>0.54949999999999999</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.50580000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="3">
+        <v>4.8975</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4.4444999999999997</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4.8407</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.8336999999999994</v>
+      </c>
+      <c r="F14" s="3">
         <v>5.1731999999999996</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4.8975</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4.4444999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -11314,384 +10689,321 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I15"/>
+  <dimension ref="A3:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>10</v>
       </c>
       <c r="B6" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D6" s="3">
         <v>0.98499999999999999</v>
       </c>
-      <c r="C6" s="3">
+      <c r="E6" s="3">
         <v>0.98360000000000003</v>
       </c>
-      <c r="D6" s="3">
+      <c r="F6" s="3">
+        <v>1.9809999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.9596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
         <v>0.996</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.995</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.96919999999999995</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2.976</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2.9287999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.998</v>
       </c>
-      <c r="C7" s="3">
+      <c r="E7" s="3">
         <v>0.98740000000000006</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.996</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.98299999999999998</v>
-      </c>
       <c r="F7" s="3">
-        <v>0.997</v>
+        <v>1.994</v>
       </c>
       <c r="G7" s="3">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2.9910000000000001</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2.9414000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+        <v>1.9704000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>30</v>
       </c>
       <c r="B8" s="3">
         <v>0.998</v>
       </c>
       <c r="C8" s="3">
-        <v>0.9869</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="D8" s="3">
         <v>0.998</v>
       </c>
       <c r="E8" s="3">
-        <v>0.98650000000000004</v>
+        <v>0.9869</v>
       </c>
       <c r="F8" s="3">
-        <v>0.999</v>
+        <v>1.996</v>
       </c>
       <c r="G8" s="3">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2.9950000000000001</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2.9514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+        <v>1.9734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>40</v>
       </c>
       <c r="B9" s="3">
         <v>0.999</v>
       </c>
       <c r="C9" s="3">
-        <v>0.98850000000000005</v>
+        <v>0.98609999999999998</v>
       </c>
       <c r="D9" s="3">
         <v>0.999</v>
       </c>
       <c r="E9" s="3">
-        <v>0.98609999999999998</v>
+        <v>0.98850000000000005</v>
       </c>
       <c r="F9" s="3">
-        <v>0.999</v>
+        <v>1.998</v>
       </c>
       <c r="G9" s="3">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2.9969999999999999</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2.9549000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+        <v>1.9746000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>50</v>
       </c>
       <c r="B10" s="3">
         <v>0.999</v>
       </c>
       <c r="C10" s="3">
-        <v>0.98980000000000001</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="D10" s="3">
         <v>0.999</v>
       </c>
       <c r="E10" s="3">
-        <v>0.98719999999999997</v>
+        <v>0.98980000000000001</v>
       </c>
       <c r="F10" s="3">
+        <v>1.998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.9769999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>60</v>
+      </c>
+      <c r="B11" s="3">
         <v>0.999</v>
       </c>
-      <c r="G10" s="3">
-        <v>0.97670000000000001</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2.9969999999999999</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2.9537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>60</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="E11" s="3">
         <v>0.99160000000000004</v>
       </c>
-      <c r="D11" s="3">
+      <c r="F11" s="3">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.9818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3">
         <v>0.999</v>
       </c>
-      <c r="E11" s="3">
-        <v>0.99019999999999997</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="C12" s="3">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="3">
-        <v>0.97850000000000004</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2.9990000000000001</v>
-      </c>
-      <c r="I11" s="3">
-        <v>2.9603000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>70</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="E12" s="3">
         <v>0.99199999999999999</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.999</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.99039999999999995</v>
-      </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>1.9990000000000001</v>
       </c>
       <c r="G12" s="3">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2.9990000000000001</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2.9643999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+        <v>1.9823999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>80</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>0.99339999999999995</v>
+        <v>0.9909</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>0.9909</v>
+        <v>0.99339999999999995</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>0.98360000000000003</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2.9679000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+        <v>1.9843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>90</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>0.99450000000000005</v>
+        <v>0.9909</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>0.9909</v>
+        <v>0.99450000000000005</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
-        <v>0.98340000000000005</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2.9687999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+        <v>1.9854000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3">
+        <v>8.9860000000000007</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8.8811999999999998</v>
+      </c>
+      <c r="D15" s="3">
         <v>8.9789999999999992</v>
       </c>
-      <c r="C15" s="3">
+      <c r="E15" s="3">
         <v>8.9077000000000002</v>
       </c>
-      <c r="D15" s="3">
-        <v>8.9860000000000007</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8.8811999999999998</v>
-      </c>
       <c r="F15" s="3">
-        <v>8.9890000000000008</v>
+        <v>17.965000000000003</v>
       </c>
       <c r="G15" s="3">
-        <v>8.8026999999999997</v>
-      </c>
-      <c r="H15" s="3">
-        <v>26.953999999999997</v>
-      </c>
-      <c r="I15" s="3">
-        <v>26.5916</v>
+        <v>17.788899999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="28.140625" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -11699,478 +11011,923 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9">
         <v>0.996</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>0.48960000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="9">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9">
         <v>0.996</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>0.98299999999999998</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>0.52039999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="9">
+        <v>0.2389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9">
         <v>0.998</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0.98650000000000004</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>0.56179999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="9">
+        <v>0.28129999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9">
         <v>0.999</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>0.98609999999999998</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>0.50600000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="9">
+        <v>0.25109999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9">
         <v>0.999</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>0.98719999999999997</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>0.57009999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="9">
+        <v>0.26889999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9">
         <v>0.999</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>0.99019999999999997</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>0.5423</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="9">
+        <v>0.25430000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>70</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9">
         <v>0.999</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>0.99039999999999995</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>0.58210000000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="9">
+        <v>0.2898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>0.9909</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>0.57569999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="9">
+        <v>0.29720000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>90</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>0.9909</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>0.54949999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="9">
+        <v>0.29749999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.98499999999999999</v>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.995</v>
       </c>
       <c r="D11" s="10">
-        <v>0.98360000000000003</v>
+        <v>0.96919999999999995</v>
       </c>
       <c r="E11" s="10">
-        <v>0.5716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.46970000000000001</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.19120000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="10">
-        <v>0.998</v>
+        <v>0.997</v>
       </c>
       <c r="D12" s="10">
-        <v>0.98740000000000006</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="E12" s="10">
-        <v>0.51200000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.24379999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.998</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.9869</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.58609999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.22420000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9">
         <v>0.999</v>
       </c>
-      <c r="D14" s="10">
-        <v>0.98850000000000005</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.57499999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="9">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.49669999999999997</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.2278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="9">
         <v>0.999</v>
       </c>
-      <c r="D15" s="10">
-        <v>0.98980000000000001</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.58210000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="9">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.48170000000000002</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.2233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="10">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0.57299999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="9">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.51070000000000004</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.2286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>70</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="10">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0.59750000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="9">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.49559999999999998</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.22389999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>80</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="10">
-        <v>0.99339999999999995</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.5786</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="D18" s="9">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.25409999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>90</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
+      <c r="B19" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="11">
-        <v>0.99450000000000005</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0.59729999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="9">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.50580000000000003</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.25169999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0.995</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0.96919999999999995</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.46970000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.997</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.22070000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="11">
-        <v>0.997</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0.49740000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.51729999999999998</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.18360000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>30</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.999</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0.49049999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.497</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.21279999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>40</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="B23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.999</v>
       </c>
-      <c r="D23" s="10">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0.49669999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="9">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.56389999999999996</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.22090000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>50</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="B24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="9">
         <v>0.999</v>
       </c>
-      <c r="D24" s="10">
-        <v>0.97670000000000001</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0.48170000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="9">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.52669999999999995</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.21609999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>60</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="9">
         <v>1</v>
       </c>
-      <c r="D25" s="10">
-        <v>0.97850000000000004</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0.51070000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="9">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.2271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>70</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="9">
         <v>1</v>
       </c>
-      <c r="D26" s="10">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0.49559999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="9">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.55020000000000002</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.23669999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>80</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.26419999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>90</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.54669999999999996</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.25180000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C29" s="9">
+        <v>0.997</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.47710000000000002</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.20710000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.25090000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.9829</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0.22639999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>40</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.53180000000000005</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>50</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.27179999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>60</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.99019999999999997</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0.2392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>70</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.2361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>80</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0.2777</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>90</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="10">
         <v>1</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D37" s="10">
+        <v>0.99380000000000002</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.56979999999999997</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0.2782</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D38" s="9">
         <v>0.98360000000000003</v>
       </c>
-      <c r="E27" s="10">
-        <v>0.49640000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="E38" s="9">
+        <v>0.5716</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0.2477</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0.22889999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.9869</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.58609999999999995</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0.23830000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0.999</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.58210000000000006</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0.27310000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0.2515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0.59750000000000003</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0.27710000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0.5786</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0.27079999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>90</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="10">
-        <v>0.98340000000000005</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0.50580000000000003</v>
+      <c r="D46" s="10">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0.59729999999999994</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0.27979999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
+++ b/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Viz Ablation Results" sheetId="2" r:id="rId1"/>
@@ -15,8 +15,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="60" r:id="rId6"/>
-    <pivotCache cacheId="64" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -197,43 +197,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b val="0"/>
@@ -270,6 +234,12 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -589,6 +559,9 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -616,6 +589,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -643,6 +619,9 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -670,6 +649,9 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1763,6 +1745,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1790,6 +1775,9 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1817,6 +1805,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1835,6 +1826,141 @@
             <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -2690,7 +2816,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3199,6 +3324,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3226,6 +3354,9 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3253,6 +3384,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3280,6 +3414,9 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="bg1">
@@ -3313,6 +3450,9 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3340,6 +3480,9 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3365,7 +3508,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="38"/>
+        <c:idx val="18"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -3392,7 +3535,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="39"/>
+        <c:idx val="19"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -3419,7 +3562,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="40"/>
+        <c:idx val="20"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -3446,7 +3589,7 @@
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="41"/>
+        <c:idx val="21"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -4073,7 +4216,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7199,7 +7341,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -7372,7 +7514,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Epochs">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Epochs">
   <location ref="A3:F14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -7477,7 +7619,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -7486,7 +7628,31 @@
     </format>
   </formats>
   <chartFormats count="5">
-    <chartFormat chart="4" format="29" series="1">
+    <chartFormat chart="4" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="17" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7498,7 +7664,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="30" series="1">
+    <chartFormat chart="4" format="18" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7510,7 +7676,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="31" series="1">
+    <chartFormat chart="4" format="19" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7518,30 +7684,6 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="32" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="33" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -7557,7 +7699,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Epochs">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Epochs">
   <location ref="A3:G15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -7748,7 +7890,7 @@
   </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="Method"/>
-    <tableColumn id="2" name="Data" dataDxfId="13"/>
+    <tableColumn id="2" name="Data" dataDxfId="3"/>
     <tableColumn id="3" name="Epochs"/>
     <tableColumn id="4" name="recall@100"/>
     <tableColumn id="5" name="recall@200"/>
@@ -7765,7 +7907,7 @@
   <autoFilter ref="A1:F46"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Epochs"/>
-    <tableColumn id="2" name="Method" dataDxfId="12"/>
+    <tableColumn id="2" name="Method" dataDxfId="0"/>
     <tableColumn id="3" name="Training"/>
     <tableColumn id="4" name="Validation (Recall@100)"/>
     <tableColumn id="5" name="Test (Recall@100)"/>
@@ -8040,7 +8182,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10434,8 +10578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
+++ b/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Viz Ablation Results" sheetId="2" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="Viz Test (MRR)" sheetId="10" r:id="rId4"/>
     <sheet name="Viz Training" sheetId="8" r:id="rId5"/>
     <sheet name="Training Process" sheetId="6" r:id="rId6"/>
+    <sheet name="Extrapolation Test Results" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="45" r:id="rId7"/>
-    <pivotCache cacheId="49" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="49">
   <si>
     <t>Method</t>
   </si>
@@ -137,12 +138,51 @@
   <si>
     <t>6. describe_then_ask_tc_2shots</t>
   </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>extrapolation</t>
+  </si>
+  <si>
+    <t>topk</t>
+  </si>
+  <si>
+    <t>article coverage rate</t>
+  </si>
+  <si>
+    <t>validation data coverage</t>
+  </si>
+  <si>
+    <t>train data size</t>
+  </si>
+  <si>
+    <t>seed data size</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Extrapolation has never been tested against pure information retrieval task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. extrapolation achieve equivalent recall performance with less data required </t>
+  </si>
+  <si>
+    <t>1. extrapolation can improve map and mrr</t>
+  </si>
+  <si>
+    <t>3. more seed data can improve recall@200 and recall@500 but not significant in terms of recall@100, map and mrr (not simply due to the fact of having higher article coverage rate)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +190,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +219,25 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -186,11 +258,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -209,82 +306,46 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -806,6 +867,9 @@
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -824,6 +888,33 @@
             <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -1369,7 +1460,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3157,7 +3247,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3269,7 +3358,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5076,7 +5164,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9178,7 +9265,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0">
@@ -9319,7 +9406,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Epochs">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Epochs">
   <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -9423,7 +9510,7 @@
     <dataField name="Somme de Test (Recall@100)" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="28">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -9431,7 +9518,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="5">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -9577,7 +9664,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Epochs">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Epochs">
   <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -9681,7 +9768,7 @@
     <dataField name="Somme de Test (mrr@100)" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="26">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -9689,7 +9776,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="3">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -9889,7 +9976,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Epochs">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Epochs">
   <location ref="A3:E15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -10053,7 +10140,7 @@
   <autoFilter ref="A1:H83"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Method"/>
-    <tableColumn id="2" name="Data" dataDxfId="29"/>
+    <tableColumn id="2" name="Data" dataDxfId="7"/>
     <tableColumn id="3" name="Epochs"/>
     <tableColumn id="4" name="recall@100"/>
     <tableColumn id="5" name="recall@200"/>
@@ -10070,11 +10157,32 @@
   <autoFilter ref="A1:F55"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Epochs"/>
-    <tableColumn id="2" name="Method" dataDxfId="24"/>
+    <tableColumn id="2" name="Method" dataDxfId="2"/>
     <tableColumn id="3" name="Training"/>
     <tableColumn id="4" name="Validation (Recall@100)"/>
     <tableColumn id="5" name="Test (Recall@100)"/>
     <tableColumn id="6" name="Test (mrr@100)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:L15" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:L15"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Round"/>
+    <tableColumn id="2" name="method"/>
+    <tableColumn id="12" name="seed data size"/>
+    <tableColumn id="11" name="train data size"/>
+    <tableColumn id="9" name="validation data coverage"/>
+    <tableColumn id="10" name="article coverage rate" dataDxfId="0"/>
+    <tableColumn id="8" name="topk"/>
+    <tableColumn id="3" name="recall@100"/>
+    <tableColumn id="4" name="recall@200"/>
+    <tableColumn id="5" name="recall@500"/>
+    <tableColumn id="6" name="map@100"/>
+    <tableColumn id="7" name="mrr@100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10346,7 +10454,7 @@
   <dimension ref="A3:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10592,8 +10700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13361,7 +13469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -13590,8 +13698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14711,4 +14819,623 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>5132</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.5454</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.62539999999999996</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.73550000000000004</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0.215</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.32750000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>6872</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.5504</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.59670000000000001</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.68620000000000003</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.17810000000000001</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.2868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="14">
+        <v>8612</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.24</v>
+      </c>
+      <c r="G4" s="14">
+        <v>10</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.60540000000000005</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.18770000000000001</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0.30430000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>10352</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.60580000000000001</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.73450000000000004</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.1857</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.30209999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>12092</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.53949999999999998</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.70009999999999994</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.1923</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.30209999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>20792</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.39</v>
+      </c>
+      <c r="G7" s="14">
+        <v>50</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.5645</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.62339999999999995</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.1714</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0.28789999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>29492</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.53410000000000002</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.61409999999999998</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.70550000000000002</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.1837</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>8362</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.53820000000000001</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.62050000000000005</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.70979999999999999</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.182</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.2878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>2</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>13332</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G10" s="14">
+        <v>10</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.58860000000000001</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0.64059999999999995</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.71909999999999996</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.19950000000000001</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0.32969999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>18302</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.61419999999999997</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.69520000000000004</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.1888</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.30349999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>23272</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.54469999999999996</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.64180000000000004</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.7127</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.1794</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.2717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>12440</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.52880000000000005</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.61980000000000002</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.71220000000000006</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0.2591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="14">
+        <v>17410</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="G14" s="14">
+        <v>10</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.6714</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="L14" s="18">
+        <v>0.32519999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>22380</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.57169999999999999</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.63949999999999996</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.72489999999999999</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0.1928</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.31209999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
+++ b/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId8"/>
-    <pivotCache cacheId="3" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -9265,7 +9265,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0">
@@ -9406,7 +9406,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Epochs">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Epochs">
   <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -9664,7 +9664,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Epochs">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Epochs">
   <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -9976,7 +9976,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Epochs">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Epochs">
   <location ref="A3:E15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -14826,7 +14826,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="K19" activeCellId="1" sqref="D15 K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
+++ b/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="52">
   <si>
     <t>Method</t>
   </si>
@@ -177,12 +177,21 @@
   <si>
     <t>3. more seed data can improve recall@200 and recall@500 but not significant in terms of recall@100, map and mrr (not simply due to the fact of having higher article coverage rate)</t>
   </si>
+  <si>
+    <t>semantic_similarity</t>
+  </si>
+  <si>
+    <t>tree_edit_distance_norm</t>
+  </si>
+  <si>
+    <t>12.6595</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +212,13 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -287,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -315,6 +331,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10168,9 +10185,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:L15" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:L15"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:N15" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:N15"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="Round"/>
     <tableColumn id="2" name="method"/>
     <tableColumn id="12" name="seed data size"/>
@@ -10183,6 +10200,8 @@
     <tableColumn id="5" name="recall@500"/>
     <tableColumn id="6" name="map@100"/>
     <tableColumn id="7" name="mrr@100"/>
+    <tableColumn id="13" name="semantic_similarity"/>
+    <tableColumn id="14" name="tree_edit_distance_norm"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14823,10 +14842,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" activeCellId="1" sqref="D15 K19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14840,9 +14859,11 @@
     <col min="8" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -14879,8 +14900,14 @@
       <c r="L1" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14918,7 +14945,7 @@
         <v>0.32750000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14956,7 +14983,7 @@
         <v>0.2868</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -14994,7 +15021,7 @@
         <v>0.30430000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15032,7 +15059,7 @@
         <v>0.30209999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -15070,7 +15097,7 @@
         <v>0.30209999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2</v>
       </c>
@@ -15108,7 +15135,7 @@
         <v>0.28789999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -15146,7 +15173,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -15184,7 +15211,7 @@
         <v>0.2878</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2</v>
       </c>
@@ -15221,8 +15248,14 @@
       <c r="L10" s="16">
         <v>0.32969999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="8">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="N10">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -15260,7 +15293,7 @@
         <v>0.30349999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -15298,7 +15331,7 @@
         <v>0.2717</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -15335,8 +15368,14 @@
       <c r="L13" s="8">
         <v>0.2591</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="8">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="N13">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>1</v>
       </c>
@@ -15362,7 +15401,7 @@
         <v>0.58550000000000002</v>
       </c>
       <c r="I14" s="18">
-        <v>0.6714</v>
+        <v>0.58550000000000002</v>
       </c>
       <c r="J14" s="18">
         <v>0.76190000000000002</v>
@@ -15373,8 +15412,14 @@
       <c r="L14" s="18">
         <v>0.32519999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="8">
+        <v>0.65280000000000005</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>

--- a/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
+++ b/scripts/baseline/bsard/experiments/synthesizing_evaluation.xlsx
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="8" r:id="rId8"/>
+    <pivotCache cacheId="9" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -9282,7 +9282,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0">
@@ -9423,7 +9423,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Epochs">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Epochs">
   <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -9681,7 +9681,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Epochs">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Epochs">
   <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -9993,7 +9993,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Epochs">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Epochs">
   <location ref="A3:E15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -10188,8 +10188,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:N15" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:N15"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Round"/>
     <tableColumn id="2" name="method"/>
+    <tableColumn id="15" name="Round"/>
     <tableColumn id="12" name="seed data size"/>
     <tableColumn id="11" name="train data size"/>
     <tableColumn id="9" name="validation data coverage"/>
@@ -14844,8 +14844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14865,10 +14865,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>43</v>
@@ -14908,11 +14908,11 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>0.1</v>
@@ -14946,11 +14946,11 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
       </c>
       <c r="C3" s="1">
         <v>0.1</v>
@@ -14984,11 +14984,11 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="14">
         <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="C4" s="15">
         <v>0.1</v>
@@ -15022,11 +15022,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
       </c>
       <c r="C5" s="1">
         <v>0.1</v>
@@ -15060,11 +15060,11 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
         <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
       </c>
       <c r="C6" s="1">
         <v>0.1</v>
@@ -15098,11 +15098,11 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="14">
         <v>2</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="C7" s="15">
         <v>0.1</v>
@@ -15136,11 +15136,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
         <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
       </c>
       <c r="C8" s="1">
         <v>0.1</v>
@@ -15174,11 +15174,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
         <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
       </c>
       <c r="C9" s="1">
         <v>0.1</v>
@@ -15212,11 +15212,11 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="14">
         <v>2</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="C10" s="15">
         <v>0.1</v>
@@ -15256,11 +15256,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
         <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
       </c>
       <c r="C11" s="1">
         <v>0.1</v>
@@ -15294,11 +15294,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
         <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
       </c>
       <c r="C12" s="1">
         <v>0.1</v>
@@ -15332,11 +15332,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
         <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
       </c>
       <c r="C13" s="1">
         <v>0.5</v>
@@ -15376,11 +15376,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="14">
         <v>1</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="15">
         <v>0.5</v>
@@ -15401,7 +15401,7 @@
         <v>0.58550000000000002</v>
       </c>
       <c r="I14" s="18">
-        <v>0.58550000000000002</v>
+        <v>0.6714</v>
       </c>
       <c r="J14" s="18">
         <v>0.76190000000000002</v>
@@ -15420,11 +15420,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
         <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
       </c>
       <c r="C15" s="1">
         <v>0.5</v>
